--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3216.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3216.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.32086767997324</v>
+        <v>1.728861689567566</v>
       </c>
       <c r="B1">
-        <v>3.495537135955837</v>
+        <v>1.904061675071716</v>
       </c>
       <c r="C1">
-        <v>5.570896837707382</v>
+        <v>2.160602331161499</v>
       </c>
       <c r="D1">
-        <v>2.100497101162016</v>
+        <v>2.681890487670898</v>
       </c>
       <c r="E1">
-        <v>1.301128764623855</v>
+        <v>1.532042026519775</v>
       </c>
     </row>
   </sheetData>
